--- a/spiral-classifier/results_freq_only.xlsx
+++ b/spiral-classifier/results_freq_only.xlsx
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.285</v>
+        <v>0.189</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -479,7 +479,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.076</v>
+        <v>0.218</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.112</v>
+        <v>0.145</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.038</v>
+        <v>0.102</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.082</v>
+        <v>0.054</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0.192</v>
+        <v>0.18</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0.517</v>
+        <v>0.55</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0.706</v>
+        <v>0.854</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0.534</v>
+        <v>0.479</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -650,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0.491</v>
+        <v>0.596</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0.443</v>
+        <v>0.585</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0.241</v>
+        <v>0.238</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0.119</v>
+        <v>0.271</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0.41</v>
+        <v>0.363</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>0.331</v>
+        <v>0.461</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>0.135</v>
+        <v>0.159</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0.498</v>
+        <v>0.714</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0.48</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>0.395</v>
+        <v>0.584</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>0.704</v>
+        <v>0.781</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>0.504</v>
+        <v>0.536</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>0.523</v>
+        <v>0.603</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>0.197</v>
+        <v>0.247</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>0.244</v>
+        <v>0.554</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>0.303</v>
+        <v>0.466</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>0.436</v>
+        <v>0.417</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>0.316</v>
+        <v>0.381</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>0.678</v>
+        <v>0.6</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>0.796</v>
+        <v>0.904</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>0.426</v>
+        <v>0.444</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>0.129</v>
+        <v>0.243</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>0.231</v>
+        <v>0.393</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>0.29</v>
+        <v>0.455</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>0.197</v>
+        <v>0.231</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>0.357</v>
+        <v>0.483</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>0.409</v>
+        <v>0.412</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>0.275</v>
+        <v>0.339</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>0.232</v>
+        <v>0.378</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>0.192</v>
+        <v>0.209</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>0.28</v>
+        <v>0.261</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>0.115</v>
+        <v>0.33</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>0.262</v>
+        <v>0.501</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>0.199</v>
+        <v>0.208</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>0.788</v>
+        <v>0.837</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9409999999999999</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>0.842</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>0.949</v>
+        <v>0.96</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>0.834</v>
+        <v>0.783</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>0.794</v>
+        <v>0.771</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>0.22</v>
+        <v>0.454</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="B55" t="n">
-        <v>0.167</v>
+        <v>0.929</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="B56" t="n">
-        <v>0.326</v>
+        <v>0.278</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>0.203</v>
+        <v>0.176</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>0.339</v>
+        <v>0.321</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>0.226</v>
+        <v>0.172</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>0.304</v>
+        <v>0.334</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>0.424</v>
+        <v>0.446</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>0.253</v>
+        <v>0.266</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>0.231</v>
+        <v>0.464</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>0.159</v>
+        <v>0.298</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="B65" t="n">
-        <v>0.295</v>
+        <v>0.474</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="n">
-        <v>0.163</v>
+        <v>0.188</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="B67" t="n">
-        <v>0.233</v>
+        <v>0.251</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>0.351</v>
+        <v>0.374</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>0.291</v>
+        <v>0.301</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>0.341</v>
+        <v>0.35</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="B71" t="n">
-        <v>0.298</v>
+        <v>0.262</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="B72" t="n">
-        <v>0.502</v>
+        <v>0.379</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="B73" t="n">
-        <v>0.511</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="B74" t="n">
-        <v>0.491</v>
+        <v>0.47</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>0.337</v>
+        <v>0.42</v>
       </c>
       <c r="C75" t="n">
         <v>1</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="B76" t="n">
-        <v>0.302</v>
+        <v>0.376</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
@@ -1885,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="B77" t="n">
-        <v>0.365</v>
+        <v>0.484</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="B78" t="n">
-        <v>0.353</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="C78" t="n">
         <v>1</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="B79" t="n">
-        <v>0.091</v>
+        <v>0.151</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="B80" t="n">
-        <v>0.18</v>
+        <v>0.245</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -1961,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>0.24</v>
+        <v>0.275</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>0.125</v>
+        <v>0.222</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>0.201</v>
+        <v>0.206</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="B84" t="n">
-        <v>0.37</v>
+        <v>0.297</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>0.407</v>
+        <v>0.458</v>
       </c>
       <c r="C85" t="n">
         <v>1</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>0.323</v>
+        <v>0.357</v>
       </c>
       <c r="C86" t="n">
         <v>1</v>
@@ -2075,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>0.439</v>
+        <v>0.314</v>
       </c>
       <c r="C87" t="n">
         <v>1</v>
@@ -2094,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="B88" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.705</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2113,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="B89" t="n">
-        <v>0.526</v>
+        <v>0.243</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="B90" t="n">
-        <v>0.591</v>
+        <v>0.587</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>0.271</v>
+        <v>0.317</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="B92" t="n">
-        <v>0.485</v>
+        <v>0.511</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="B93" t="n">
-        <v>0.341</v>
+        <v>0.373</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="B94" t="n">
-        <v>0.358</v>
+        <v>0.409</v>
       </c>
       <c r="C94" t="n">
         <v>1</v>
@@ -2227,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>0.361</v>
+        <v>0.391</v>
       </c>
       <c r="C95" t="n">
         <v>1</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>0.407</v>
+        <v>0.302</v>
       </c>
       <c r="C96" t="n">
         <v>1</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>0.3</v>
+        <v>0.343</v>
       </c>
       <c r="C97" t="n">
         <v>1</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="B98" t="n">
-        <v>0.384</v>
+        <v>0.272</v>
       </c>
       <c r="C98" t="n">
         <v>1</v>
@@ -2303,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="B99" t="n">
-        <v>0.107</v>
+        <v>0.254</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -2322,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="B100" t="n">
-        <v>0.006</v>
+        <v>0.151</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="B101" t="n">
-        <v>0.098</v>
+        <v>0.124</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="B102" t="n">
-        <v>0.231</v>
+        <v>0.082</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -2379,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="B103" t="n">
-        <v>0.275</v>
+        <v>0.271</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="B104" t="n">
-        <v>0.263</v>
+        <v>0.298</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="B105" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.743</v>
       </c>
       <c r="C105" t="n">
         <v>1</v>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="B106" t="n">
-        <v>0.539</v>
+        <v>0.59</v>
       </c>
       <c r="C106" t="n">
         <v>1</v>
@@ -2455,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="B107" t="n">
-        <v>0.627</v>
+        <v>0.73</v>
       </c>
       <c r="C107" t="n">
         <v>1</v>
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B108" t="n">
-        <v>0.681</v>
+        <v>0.631</v>
       </c>
       <c r="C108" t="n">
         <v>1</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="B109" t="n">
-        <v>0.788</v>
+        <v>0.662</v>
       </c>
       <c r="C109" t="n">
         <v>1</v>
@@ -2512,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="B110" t="n">
-        <v>0.552</v>
+        <v>0.529</v>
       </c>
       <c r="C110" t="n">
         <v>1</v>
@@ -2531,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="B111" t="n">
-        <v>0.268</v>
+        <v>0.282</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="B112" t="n">
-        <v>0.156</v>
+        <v>0.255</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="B113" t="n">
-        <v>0.14</v>
+        <v>0.163</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="B114" t="n">
-        <v>0.162</v>
+        <v>0.164</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="B116" t="n">
-        <v>0.293</v>
+        <v>0.284</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="B117" t="n">
-        <v>0.267</v>
+        <v>0.363</v>
       </c>
       <c r="C117" t="n">
         <v>1</v>
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="B118" t="n">
-        <v>0.286</v>
+        <v>0.429</v>
       </c>
       <c r="C118" t="n">
         <v>1</v>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="B119" t="n">
-        <v>0.33</v>
+        <v>0.475</v>
       </c>
       <c r="C119" t="n">
         <v>1</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="B120" t="n">
-        <v>0.357</v>
+        <v>0.322</v>
       </c>
       <c r="C120" t="n">
         <v>1</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="B121" t="n">
-        <v>0.37</v>
+        <v>0.273</v>
       </c>
       <c r="C121" t="n">
         <v>1</v>
@@ -2740,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="B122" t="n">
-        <v>0.396</v>
+        <v>0.487</v>
       </c>
       <c r="C122" t="n">
         <v>1</v>
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="B123" t="n">
-        <v>0.31</v>
+        <v>0.382</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="B124" t="n">
-        <v>0.311</v>
+        <v>0.483</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="B125" t="n">
-        <v>0.185</v>
+        <v>0.227</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="B126" t="n">
-        <v>0.064</v>
+        <v>0.178</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -2835,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="B127" t="n">
-        <v>0.258</v>
+        <v>0.336</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="B128" t="n">
-        <v>0.344</v>
+        <v>0.347</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="B129" t="n">
-        <v>0.076</v>
+        <v>0.082</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="n">
-        <v>0.346</v>
+        <v>0.549</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="B131" t="n">
-        <v>0.147</v>
+        <v>0.145</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="B132" t="n">
-        <v>0.181</v>
+        <v>0.264</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="B133" t="n">
-        <v>0.215</v>
+        <v>0.239</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="B134" t="n">
-        <v>0.322</v>
+        <v>0.36</v>
       </c>
       <c r="C134" t="n">
         <v>1</v>
@@ -2987,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="B135" t="n">
-        <v>0.243</v>
+        <v>0.255</v>
       </c>
       <c r="C135" t="n">
         <v>1</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="B136" t="n">
-        <v>0.216</v>
+        <v>0.298</v>
       </c>
       <c r="C136" t="n">
         <v>1</v>
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="B137" t="n">
-        <v>0.124</v>
+        <v>0.249</v>
       </c>
       <c r="C137" t="n">
         <v>1</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="B138" t="n">
-        <v>0.306</v>
+        <v>0.319</v>
       </c>
       <c r="C138" t="n">
         <v>1</v>
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="B139" t="n">
-        <v>0.266</v>
+        <v>0.396</v>
       </c>
       <c r="C139" t="n">
         <v>1</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="B140" t="n">
-        <v>0.339</v>
+        <v>0.48</v>
       </c>
       <c r="C140" t="n">
         <v>1</v>
@@ -3101,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="B141" t="n">
-        <v>0.26</v>
+        <v>0.353</v>
       </c>
       <c r="C141" t="n">
         <v>1</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="B142" t="n">
-        <v>0.236</v>
+        <v>0.433</v>
       </c>
       <c r="C142" t="n">
         <v>1</v>
@@ -3139,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="B143" t="n">
-        <v>0.204</v>
+        <v>0.313</v>
       </c>
       <c r="C143" t="n">
         <v>1</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="B144" t="n">
-        <v>0.182</v>
+        <v>0.431</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="B145" t="n">
-        <v>0.187</v>
+        <v>0.175</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="B146" t="n">
-        <v>0.201</v>
+        <v>0.149</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="B147" t="n">
-        <v>0.153</v>
+        <v>0.292</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="B148" t="n">
-        <v>0.314</v>
+        <v>0.35</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="B149" t="n">
-        <v>0.347</v>
+        <v>0.486</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="B150" t="n">
-        <v>0.408</v>
+        <v>0.539</v>
       </c>
       <c r="C150" t="n">
         <v>1</v>
@@ -3291,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="B151" t="n">
-        <v>0.541</v>
+        <v>0.521</v>
       </c>
       <c r="C151" t="n">
         <v>1</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="B152" t="n">
-        <v>0.644</v>
+        <v>0.668</v>
       </c>
       <c r="C152" t="n">
         <v>1</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="B153" t="n">
-        <v>0.573</v>
+        <v>0.652</v>
       </c>
       <c r="C153" t="n">
         <v>1</v>
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="B154" t="n">
-        <v>0.225</v>
+        <v>0.296</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="B155" t="n">
-        <v>0.218</v>
+        <v>0.285</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="B156" t="n">
-        <v>0.164</v>
+        <v>0.318</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="B157" t="n">
-        <v>0.241</v>
+        <v>0.179</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="B158" t="n">
-        <v>0.335</v>
+        <v>0.434</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="B159" t="n">
-        <v>0.293</v>
+        <v>0.31</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -3462,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="B160" t="n">
-        <v>0.665</v>
+        <v>0.678</v>
       </c>
       <c r="C160" t="n">
         <v>1</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="B161" t="n">
-        <v>0.433</v>
+        <v>0.464</v>
       </c>
       <c r="C161" t="n">
         <v>1</v>
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="B162" t="n">
-        <v>0.485</v>
+        <v>0.582</v>
       </c>
       <c r="C162" t="n">
         <v>1</v>
@@ -3519,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="B163" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.306</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="B164" t="n">
-        <v>0.261</v>
+        <v>0.181</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="B165" t="n">
-        <v>0.163</v>
+        <v>0.248</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -3576,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="B166" t="n">
-        <v>0.276</v>
+        <v>0.22</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -3595,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="B167" t="n">
-        <v>0.384</v>
+        <v>0.147</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="B168" t="n">
-        <v>0.457</v>
+        <v>0.394</v>
       </c>
       <c r="C168" t="n">
         <v>1</v>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="B169" t="n">
-        <v>0.224</v>
+        <v>0.402</v>
       </c>
       <c r="C169" t="n">
         <v>1</v>
@@ -3652,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="B170" t="n">
-        <v>0.327</v>
+        <v>0.367</v>
       </c>
       <c r="C170" t="n">
         <v>1</v>
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="B171" t="n">
-        <v>0.402</v>
+        <v>0.376</v>
       </c>
       <c r="C171" t="n">
         <v>1</v>
@@ -3690,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="B172" t="n">
-        <v>0.494</v>
+        <v>0.549</v>
       </c>
       <c r="C172" t="n">
         <v>1</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="B173" t="n">
-        <v>0.42</v>
+        <v>0.385</v>
       </c>
       <c r="C173" t="n">
         <v>1</v>
@@ -3728,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="B174" t="n">
-        <v>0.033</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="B175" t="n">
-        <v>0.378</v>
+        <v>0.584</v>
       </c>
       <c r="C175" t="n">
         <v>1</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="B176" t="n">
-        <v>0.37</v>
+        <v>0.385</v>
       </c>
       <c r="C176" t="n">
         <v>1</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="B177" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.232</v>
       </c>
       <c r="C177" t="n">
         <v>1</v>
@@ -3804,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="B178" t="n">
-        <v>0.292</v>
+        <v>0.342</v>
       </c>
       <c r="C178" t="n">
         <v>1</v>
@@ -3823,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="B179" t="n">
-        <v>0.307</v>
+        <v>0.43</v>
       </c>
       <c r="C179" t="n">
         <v>1</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="B180" t="n">
-        <v>0.298</v>
+        <v>0.26</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="B181" t="n">
-        <v>0.298</v>
+        <v>0.198</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -3880,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="B182" t="n">
-        <v>0.312</v>
+        <v>0.391</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="B183" t="n">
-        <v>0.419</v>
+        <v>0.511</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="B184" t="n">
-        <v>0.315</v>
+        <v>0.379</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="B185" t="n">
-        <v>0.47</v>
+        <v>0.601</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="B186" t="n">
-        <v>0.796</v>
+        <v>0.804</v>
       </c>
       <c r="C186" t="n">
         <v>1</v>
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="B187" t="n">
-        <v>0.792</v>
+        <v>0.75</v>
       </c>
       <c r="C187" t="n">
         <v>1</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="B188" t="n">
-        <v>0.272</v>
+        <v>0.292</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="B189" t="n">
-        <v>0.144</v>
+        <v>0.145</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="B190" t="n">
-        <v>0.236</v>
+        <v>0.197</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="B191" t="n">
-        <v>0.068</v>
+        <v>0.041</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="B192" t="n">
-        <v>0.134</v>
+        <v>0.157</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -4089,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="B193" t="n">
-        <v>0.263</v>
+        <v>0.306</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -4108,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="n">
-        <v>0.317</v>
+        <v>0.384</v>
       </c>
       <c r="C194" t="n">
         <v>1</v>
@@ -4127,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="B195" t="n">
-        <v>0.219</v>
+        <v>0.323</v>
       </c>
       <c r="C195" t="n">
         <v>1</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="B196" t="n">
-        <v>0.279</v>
+        <v>0.312</v>
       </c>
       <c r="C196" t="n">
         <v>1</v>
@@ -4165,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="B197" t="n">
-        <v>0.306</v>
+        <v>0.396</v>
       </c>
       <c r="C197" t="n">
         <v>1</v>
@@ -4184,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="B198" t="n">
-        <v>0.433</v>
+        <v>0.463</v>
       </c>
       <c r="C198" t="n">
         <v>1</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="B199" t="n">
-        <v>0.196</v>
+        <v>0.335</v>
       </c>
       <c r="C199" t="n">
         <v>1</v>
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="B200" t="n">
-        <v>0.322</v>
+        <v>0.527</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -4260,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="B202" t="n">
-        <v>0.41</v>
+        <v>0.294</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="B203" t="n">
-        <v>0.356</v>
+        <v>0.33</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -4298,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="B204" t="n">
-        <v>0.245</v>
+        <v>0.217</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -4317,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="B205" t="n">
-        <v>0.246</v>
+        <v>0.356</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -4336,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="B206" t="n">
-        <v>0.438</v>
+        <v>0.525</v>
       </c>
       <c r="C206" t="n">
         <v>1</v>
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="B207" t="n">
-        <v>0.378</v>
+        <v>0.441</v>
       </c>
       <c r="C207" t="n">
         <v>1</v>
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="B208" t="n">
-        <v>0.513</v>
+        <v>0.54</v>
       </c>
       <c r="C208" t="n">
         <v>1</v>
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="B209" t="n">
-        <v>0.455</v>
+        <v>0.513</v>
       </c>
       <c r="C209" t="n">
         <v>1</v>
@@ -4412,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="B210" t="n">
-        <v>0.32</v>
+        <v>0.317</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -4431,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="B211" t="n">
-        <v>0.379</v>
+        <v>0.594</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -4450,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="B212" t="n">
-        <v>0.373</v>
+        <v>0.427</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -4469,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="B213" t="n">
-        <v>0.386</v>
+        <v>0.451</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -4488,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="B214" t="n">
-        <v>0.351</v>
+        <v>0.53</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -4507,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="B215" t="n">
-        <v>0.195</v>
+        <v>0.201</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="B216" t="n">
-        <v>0.529</v>
+        <v>0.446</v>
       </c>
       <c r="C216" t="n">
         <v>1</v>
@@ -4545,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="B217" t="n">
-        <v>0.348</v>
+        <v>0.575</v>
       </c>
       <c r="C217" t="n">
         <v>1</v>
@@ -4564,7 +4564,7 @@
         <v>0</v>
       </c>
       <c r="B218" t="n">
-        <v>0.574</v>
+        <v>0.584</v>
       </c>
       <c r="C218" t="n">
         <v>1</v>
@@ -4583,7 +4583,7 @@
         <v>0</v>
       </c>
       <c r="B219" t="n">
-        <v>0.425</v>
+        <v>0.479</v>
       </c>
       <c r="C219" t="n">
         <v>1</v>
@@ -4602,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="B220" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.658</v>
       </c>
       <c r="C220" t="n">
         <v>1</v>
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="B221" t="n">
-        <v>0.54</v>
+        <v>0.604</v>
       </c>
       <c r="C221" t="n">
         <v>1</v>
@@ -4640,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="B222" t="n">
-        <v>0.399</v>
+        <v>0.426</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -4659,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="B223" t="n">
-        <v>0.429</v>
+        <v>0.43</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -4678,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="B224" t="n">
-        <v>0.435</v>
+        <v>0.481</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -4697,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="B225" t="n">
-        <v>0.483</v>
+        <v>0.497</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -4716,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="B226" t="n">
-        <v>0.316</v>
+        <v>0.396</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -4735,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="B227" t="n">
-        <v>0.359</v>
+        <v>0.406</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -4754,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="B228" t="n">
-        <v>0.264</v>
+        <v>0.436</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -4773,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="B229" t="n">
-        <v>0.311</v>
+        <v>0.316</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="B230" t="n">
-        <v>0.378</v>
+        <v>0.486</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="B231" t="n">
-        <v>0.431</v>
+        <v>0.346</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="B232" t="n">
-        <v>0.345</v>
+        <v>0.283</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -4849,7 +4849,7 @@
         <v>0</v>
       </c>
       <c r="B233" t="n">
-        <v>0.679</v>
+        <v>0.743</v>
       </c>
       <c r="C233" t="n">
         <v>1</v>
@@ -4868,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="B234" t="n">
-        <v>0.425</v>
+        <v>0.579</v>
       </c>
       <c r="C234" t="n">
         <v>1</v>
@@ -4887,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="B235" t="n">
-        <v>0.537</v>
+        <v>0.513</v>
       </c>
       <c r="C235" t="n">
         <v>1</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="B236" t="n">
-        <v>0.639</v>
+        <v>0.673</v>
       </c>
       <c r="C236" t="n">
         <v>1</v>
@@ -4925,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="B237" t="n">
-        <v>0.62</v>
+        <v>0.664</v>
       </c>
       <c r="C237" t="n">
         <v>1</v>
@@ -4944,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="B238" t="n">
-        <v>0.252</v>
+        <v>0.328</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="B239" t="n">
-        <v>0.18</v>
+        <v>0.313</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -4982,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="B240" t="n">
-        <v>0.227</v>
+        <v>0.217</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="B241" t="n">
-        <v>0.455</v>
+        <v>0.546</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -5020,7 +5020,7 @@
         <v>0</v>
       </c>
       <c r="B242" t="n">
-        <v>0.209</v>
+        <v>0.207</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -5039,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="B243" t="n">
-        <v>0.209</v>
+        <v>0.303</v>
       </c>
       <c r="C243" t="n">
         <v>1</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="B244" t="n">
-        <v>0.277</v>
+        <v>0.384</v>
       </c>
       <c r="C244" t="n">
         <v>1</v>
@@ -5077,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="B245" t="n">
-        <v>0.447</v>
+        <v>0.498</v>
       </c>
       <c r="C245" t="n">
         <v>1</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="B246" t="n">
-        <v>0.348</v>
+        <v>0.474</v>
       </c>
       <c r="C246" t="n">
         <v>1</v>
@@ -5115,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="B247" t="n">
-        <v>0.432</v>
+        <v>0.36</v>
       </c>
       <c r="C247" t="n">
         <v>1</v>
@@ -5134,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="B248" t="n">
-        <v>0.526</v>
+        <v>0.554</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -5153,7 +5153,7 @@
         <v>0</v>
       </c>
       <c r="B249" t="n">
-        <v>0.324</v>
+        <v>0.27</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -5172,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="B250" t="n">
-        <v>0.233</v>
+        <v>0.331</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -5191,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="B251" t="n">
-        <v>0.286</v>
+        <v>0.246</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -5210,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="B252" t="n">
-        <v>0.237</v>
+        <v>0.374</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -5229,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="B253" t="n">
-        <v>0.096</v>
+        <v>0.408</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -5248,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="B254" t="n">
-        <v>0.252</v>
+        <v>0.206</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="B255" t="n">
-        <v>0.332</v>
+        <v>0.4</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="B256" t="n">
-        <v>0.371</v>
+        <v>0.468</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -5305,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="B257" t="n">
-        <v>0.411</v>
+        <v>0.379</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -5324,7 +5324,7 @@
         <v>0</v>
       </c>
       <c r="B258" t="n">
-        <v>0.257</v>
+        <v>0.209</v>
       </c>
       <c r="C258" t="n">
         <v>1</v>
@@ -5343,7 +5343,7 @@
         <v>0</v>
       </c>
       <c r="B259" t="n">
-        <v>0.288</v>
+        <v>0.346</v>
       </c>
       <c r="C259" t="n">
         <v>1</v>
@@ -5362,7 +5362,7 @@
         <v>0</v>
       </c>
       <c r="B260" t="n">
-        <v>0.224</v>
+        <v>0.547</v>
       </c>
       <c r="C260" t="n">
         <v>1</v>
@@ -5381,7 +5381,7 @@
         <v>0</v>
       </c>
       <c r="B261" t="n">
-        <v>0.312</v>
+        <v>0.261</v>
       </c>
       <c r="C261" t="n">
         <v>1</v>
@@ -5400,7 +5400,7 @@
         <v>0</v>
       </c>
       <c r="B262" t="n">
-        <v>0.305</v>
+        <v>0.389</v>
       </c>
       <c r="C262" t="n">
         <v>1</v>
@@ -5419,7 +5419,7 @@
         <v>0</v>
       </c>
       <c r="B263" t="n">
-        <v>0.425</v>
+        <v>0.437</v>
       </c>
       <c r="C263" t="n">
         <v>1</v>
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="B264" t="n">
-        <v>0.201</v>
+        <v>0.27</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -5457,7 +5457,7 @@
         <v>0</v>
       </c>
       <c r="B265" t="n">
-        <v>0.42</v>
+        <v>0.472</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -5476,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="B266" t="n">
-        <v>0.209</v>
+        <v>0.195</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -5495,7 +5495,7 @@
         <v>0</v>
       </c>
       <c r="B267" t="n">
-        <v>0.125</v>
+        <v>0.244</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="B268" t="n">
-        <v>0.148</v>
+        <v>0.275</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -5533,7 +5533,7 @@
         <v>0</v>
       </c>
       <c r="B269" t="n">
-        <v>0.305</v>
+        <v>0.438</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -5552,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="B270" t="n">
-        <v>0.607</v>
+        <v>0.704</v>
       </c>
       <c r="C270" t="n">
         <v>1</v>
@@ -5571,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="B271" t="n">
-        <v>0.502</v>
+        <v>0.281</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -5590,7 +5590,7 @@
         <v>0</v>
       </c>
       <c r="B272" t="n">
-        <v>0.265</v>
+        <v>0.236</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -5609,7 +5609,7 @@
         <v>0</v>
       </c>
       <c r="B273" t="n">
-        <v>0.251</v>
+        <v>0.221</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>0</v>
       </c>
       <c r="B274" t="n">
-        <v>0.233</v>
+        <v>0.349</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="B275" t="n">
-        <v>0.208</v>
+        <v>0.213</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="B276" t="n">
-        <v>0.271</v>
+        <v>0.251</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="B277" t="n">
-        <v>0.372</v>
+        <v>0.335</v>
       </c>
       <c r="C277" t="n">
         <v>1</v>
@@ -5704,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="B278" t="n">
-        <v>0.361</v>
+        <v>0.415</v>
       </c>
       <c r="C278" t="n">
         <v>1</v>
@@ -5723,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="B279" t="n">
-        <v>0.573</v>
+        <v>0.349</v>
       </c>
       <c r="C279" t="n">
         <v>1</v>
@@ -5742,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="B280" t="n">
-        <v>0.34</v>
+        <v>0.435</v>
       </c>
       <c r="C280" t="n">
         <v>1</v>
@@ -5761,7 +5761,7 @@
         <v>0</v>
       </c>
       <c r="B281" t="n">
-        <v>0.409</v>
+        <v>0.48</v>
       </c>
       <c r="C281" t="n">
         <v>1</v>
@@ -5780,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="B282" t="n">
-        <v>0.299</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="C282" t="n">
         <v>1</v>
@@ -5799,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="B283" t="n">
-        <v>0.137</v>
+        <v>0.304</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -5818,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="B284" t="n">
-        <v>0.405</v>
+        <v>0.228</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -5837,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="B285" t="n">
-        <v>0.342</v>
+        <v>0.338</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -5856,7 +5856,7 @@
         <v>0</v>
       </c>
       <c r="B286" t="n">
-        <v>0.18</v>
+        <v>0.125</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -5875,7 +5875,7 @@
         <v>0</v>
       </c>
       <c r="B287" t="n">
-        <v>0.236</v>
+        <v>0.233</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="B288" t="n">
-        <v>0</v>
+        <v>0.065</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -5913,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="B289" t="n">
-        <v>0.613</v>
+        <v>0.572</v>
       </c>
       <c r="C289" t="n">
         <v>1</v>
@@ -5932,7 +5932,7 @@
         <v>0</v>
       </c>
       <c r="B290" t="n">
-        <v>0.517</v>
+        <v>0.494</v>
       </c>
       <c r="C290" t="n">
         <v>1</v>
@@ -5951,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="B291" t="n">
-        <v>0.696</v>
+        <v>0.545</v>
       </c>
       <c r="C291" t="n">
         <v>1</v>
@@ -5970,7 +5970,7 @@
         <v>0</v>
       </c>
       <c r="B292" t="n">
-        <v>0.681</v>
+        <v>0.623</v>
       </c>
       <c r="C292" t="n">
         <v>1</v>
@@ -5989,7 +5989,7 @@
         <v>0</v>
       </c>
       <c r="B293" t="n">
-        <v>0.656</v>
+        <v>0.727</v>
       </c>
       <c r="C293" t="n">
         <v>1</v>
@@ -6008,7 +6008,7 @@
         <v>0</v>
       </c>
       <c r="B294" t="n">
-        <v>0.637</v>
+        <v>0.57</v>
       </c>
       <c r="C294" t="n">
         <v>1</v>
@@ -6027,7 +6027,7 @@
         <v>0</v>
       </c>
       <c r="B295" t="n">
-        <v>0.402</v>
+        <v>0.365</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="B296" t="n">
-        <v>0.293</v>
+        <v>0.236</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -6065,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="B297" t="n">
-        <v>0.26</v>
+        <v>0.293</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="B298" t="n">
-        <v>0.164</v>
+        <v>0.262</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -6103,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="B299" t="n">
-        <v>0.2</v>
+        <v>0.263</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="B300" t="n">
-        <v>0.266</v>
+        <v>0.304</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="B301" t="n">
-        <v>0.4</v>
+        <v>0.387</v>
       </c>
       <c r="C301" t="n">
         <v>1</v>
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="B302" t="n">
-        <v>0.439</v>
+        <v>0.374</v>
       </c>
       <c r="C302" t="n">
         <v>1</v>
@@ -6179,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="B303" t="n">
-        <v>0.371</v>
+        <v>0.398</v>
       </c>
       <c r="C303" t="n">
         <v>1</v>
@@ -6198,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="B304" t="n">
-        <v>0.262</v>
+        <v>0.305</v>
       </c>
       <c r="C304" t="n">
         <v>1</v>
@@ -6217,7 +6217,7 @@
         <v>0</v>
       </c>
       <c r="B305" t="n">
-        <v>0.237</v>
+        <v>0.326</v>
       </c>
       <c r="C305" t="n">
         <v>1</v>
@@ -6236,7 +6236,7 @@
         <v>0</v>
       </c>
       <c r="B306" t="n">
-        <v>0.276</v>
+        <v>0.459</v>
       </c>
       <c r="C306" t="n">
         <v>1</v>
@@ -6255,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="B307" t="n">
-        <v>0.082</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -6274,7 +6274,7 @@
         <v>0</v>
       </c>
       <c r="B308" t="n">
-        <v>0.14</v>
+        <v>0.244</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -6293,7 +6293,7 @@
         <v>0</v>
       </c>
       <c r="B309" t="n">
-        <v>0.061</v>
+        <v>0.052</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -6312,7 +6312,7 @@
         <v>0</v>
       </c>
       <c r="B310" t="n">
-        <v>0.123</v>
+        <v>0.048</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -6331,7 +6331,7 @@
         <v>0</v>
       </c>
       <c r="B311" t="n">
-        <v>0.073</v>
+        <v>0.074</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -6350,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="B312" t="n">
-        <v>0.102</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -6369,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="B313" t="n">
-        <v>0.352</v>
+        <v>0.535</v>
       </c>
       <c r="C313" t="n">
         <v>1</v>
@@ -6388,7 +6388,7 @@
         <v>0</v>
       </c>
       <c r="B314" t="n">
-        <v>0.466</v>
+        <v>0.714</v>
       </c>
       <c r="C314" t="n">
         <v>1</v>
@@ -6407,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="B315" t="n">
-        <v>0.373</v>
+        <v>0.585</v>
       </c>
       <c r="C315" t="n">
         <v>1</v>
@@ -6426,7 +6426,7 @@
         <v>0</v>
       </c>
       <c r="B316" t="n">
-        <v>0.336</v>
+        <v>0.412</v>
       </c>
       <c r="C316" t="n">
         <v>1</v>
@@ -6445,7 +6445,7 @@
         <v>0</v>
       </c>
       <c r="B317" t="n">
-        <v>0.374</v>
+        <v>0.427</v>
       </c>
       <c r="C317" t="n">
         <v>1</v>
@@ -6464,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="B318" t="n">
-        <v>0.219</v>
+        <v>0.275</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -6483,7 +6483,7 @@
         <v>0</v>
       </c>
       <c r="B319" t="n">
-        <v>0.168</v>
+        <v>0.222</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -6502,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="B320" t="n">
-        <v>0.192</v>
+        <v>0.228</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -6521,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="B321" t="n">
-        <v>0.218</v>
+        <v>0.258</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -6540,7 +6540,7 @@
         <v>0</v>
       </c>
       <c r="B322" t="n">
-        <v>0.013</v>
+        <v>0.063</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="B323" t="n">
-        <v>0.202</v>
+        <v>0.268</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -6578,7 +6578,7 @@
         <v>0</v>
       </c>
       <c r="B324" t="n">
-        <v>0.351</v>
+        <v>0.365</v>
       </c>
       <c r="C324" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         <v>0</v>
       </c>
       <c r="B325" t="n">
-        <v>0.514</v>
+        <v>0.4</v>
       </c>
       <c r="C325" t="n">
         <v>1</v>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="B326" t="n">
-        <v>0.323</v>
+        <v>0.43</v>
       </c>
       <c r="C326" t="n">
         <v>1</v>
@@ -6635,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="B327" t="n">
-        <v>0.505</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C327" t="n">
         <v>1</v>
@@ -6654,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="B328" t="n">
-        <v>0.197</v>
+        <v>0.337</v>
       </c>
       <c r="C328" t="n">
         <v>1</v>
@@ -6673,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="B329" t="n">
-        <v>0.344</v>
+        <v>0.591</v>
       </c>
       <c r="C329" t="n">
         <v>1</v>
@@ -6692,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="B330" t="n">
-        <v>0.282</v>
+        <v>0.395</v>
       </c>
       <c r="C330" t="n">
         <v>1</v>
@@ -6711,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="B331" t="n">
-        <v>0.339</v>
+        <v>0.378</v>
       </c>
       <c r="C331" t="n">
         <v>1</v>
@@ -6730,7 +6730,7 @@
         <v>0</v>
       </c>
       <c r="B332" t="n">
-        <v>0.258</v>
+        <v>0.259</v>
       </c>
       <c r="C332" t="n">
         <v>1</v>
@@ -6749,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="B333" t="n">
-        <v>0.351</v>
+        <v>0.306</v>
       </c>
       <c r="C333" t="n">
         <v>1</v>
@@ -6768,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="B334" t="n">
-        <v>0.372</v>
+        <v>0.548</v>
       </c>
       <c r="C334" t="n">
         <v>1</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="B335" t="n">
-        <v>0.351</v>
+        <v>0.377</v>
       </c>
       <c r="C335" t="n">
         <v>1</v>
@@ -6806,7 +6806,7 @@
         <v>0</v>
       </c>
       <c r="B336" t="n">
-        <v>0.19</v>
+        <v>0.218</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -6825,7 +6825,7 @@
         <v>0</v>
       </c>
       <c r="B337" t="n">
-        <v>0.209</v>
+        <v>0.241</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -6844,7 +6844,7 @@
         <v>0</v>
       </c>
       <c r="B338" t="n">
-        <v>0.44</v>
+        <v>0.359</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -6863,7 +6863,7 @@
         <v>0</v>
       </c>
       <c r="B339" t="n">
-        <v>0.158</v>
+        <v>0.274</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -6882,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="B340" t="n">
-        <v>0.47</v>
+        <v>0.453</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -6901,7 +6901,7 @@
         <v>0</v>
       </c>
       <c r="B341" t="n">
-        <v>0.079</v>
+        <v>0.245</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -6920,7 +6920,7 @@
         <v>0</v>
       </c>
       <c r="B342" t="n">
-        <v>0.443</v>
+        <v>0.432</v>
       </c>
       <c r="C342" t="n">
         <v>1</v>
@@ -6939,7 +6939,7 @@
         <v>0</v>
       </c>
       <c r="B343" t="n">
-        <v>0.439</v>
+        <v>0.551</v>
       </c>
       <c r="C343" t="n">
         <v>1</v>
@@ -6958,7 +6958,7 @@
         <v>0</v>
       </c>
       <c r="B344" t="n">
-        <v>0.506</v>
+        <v>0.492</v>
       </c>
       <c r="C344" t="n">
         <v>1</v>
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="B345" t="n">
-        <v>0.357</v>
+        <v>0.462</v>
       </c>
       <c r="C345" t="n">
         <v>1</v>
@@ -6996,7 +6996,7 @@
         <v>0</v>
       </c>
       <c r="B346" t="n">
-        <v>0.525</v>
+        <v>0.672</v>
       </c>
       <c r="C346" t="n">
         <v>1</v>
@@ -7015,7 +7015,7 @@
         <v>0</v>
       </c>
       <c r="B347" t="n">
-        <v>0.346</v>
+        <v>0.34</v>
       </c>
       <c r="C347" t="n">
         <v>1</v>
@@ -7034,7 +7034,7 @@
         <v>0</v>
       </c>
       <c r="B348" t="n">
-        <v>0.205</v>
+        <v>0.015</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -7053,7 +7053,7 @@
         <v>0</v>
       </c>
       <c r="B349" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.115</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -7072,7 +7072,7 @@
         <v>0</v>
       </c>
       <c r="B350" t="n">
-        <v>0.193</v>
+        <v>0.234</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="B351" t="n">
-        <v>0.132</v>
+        <v>0.324</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="B352" t="n">
-        <v>0.242</v>
+        <v>0.202</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -7129,7 +7129,7 @@
         <v>0</v>
       </c>
       <c r="B353" t="n">
-        <v>0.184</v>
+        <v>0.145</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -7148,7 +7148,7 @@
         <v>0</v>
       </c>
       <c r="B354" t="n">
-        <v>0.611</v>
+        <v>0.538</v>
       </c>
       <c r="C354" t="n">
         <v>1</v>
@@ -7167,7 +7167,7 @@
         <v>0</v>
       </c>
       <c r="B355" t="n">
-        <v>0.482</v>
+        <v>0.718</v>
       </c>
       <c r="C355" t="n">
         <v>1</v>
@@ -7186,7 +7186,7 @@
         <v>0</v>
       </c>
       <c r="B356" t="n">
-        <v>0.631</v>
+        <v>0.672</v>
       </c>
       <c r="C356" t="n">
         <v>1</v>
@@ -7205,7 +7205,7 @@
         <v>0</v>
       </c>
       <c r="B357" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.612</v>
       </c>
       <c r="C357" t="n">
         <v>1</v>
@@ -7243,7 +7243,7 @@
         <v>0</v>
       </c>
       <c r="B359" t="n">
-        <v>0.619</v>
+        <v>0.738</v>
       </c>
       <c r="C359" t="n">
         <v>1</v>
@@ -7262,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="B360" t="n">
-        <v>0.092</v>
+        <v>0.254</v>
       </c>
       <c r="C360" t="n">
         <v>0</v>
@@ -7281,7 +7281,7 @@
         <v>0</v>
       </c>
       <c r="B361" t="n">
-        <v>0.127</v>
+        <v>0.16</v>
       </c>
       <c r="C361" t="n">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="B362" t="n">
-        <v>0.08599999999999999</v>
+        <v>0</v>
       </c>
       <c r="C362" t="n">
         <v>0</v>
@@ -7319,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="B363" t="n">
-        <v>0.066</v>
+        <v>0.1</v>
       </c>
       <c r="C363" t="n">
         <v>0</v>
@@ -7338,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="B364" t="n">
-        <v>0.216</v>
+        <v>0.362</v>
       </c>
       <c r="C364" t="n">
         <v>0</v>
@@ -7357,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="B365" t="n">
-        <v>0.215</v>
+        <v>0.417</v>
       </c>
       <c r="C365" t="n">
         <v>1</v>
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="B366" t="n">
-        <v>0.35</v>
+        <v>0.368</v>
       </c>
       <c r="C366" t="n">
         <v>1</v>
@@ -7395,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="B367" t="n">
-        <v>0.372</v>
+        <v>0.346</v>
       </c>
       <c r="C367" t="n">
         <v>1</v>
@@ -7414,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="B368" t="n">
-        <v>0.583</v>
+        <v>0.55</v>
       </c>
       <c r="C368" t="n">
         <v>1</v>
@@ -7433,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="B369" t="n">
-        <v>0.299</v>
+        <v>0.29</v>
       </c>
       <c r="C369" t="n">
         <v>1</v>
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="B370" t="n">
-        <v>0.457</v>
+        <v>0.454</v>
       </c>
       <c r="C370" t="n">
         <v>0</v>
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="B371" t="n">
-        <v>0.297</v>
+        <v>0.439</v>
       </c>
       <c r="C371" t="n">
         <v>0</v>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="B372" t="n">
-        <v>0.309</v>
+        <v>0.578</v>
       </c>
       <c r="C372" t="n">
         <v>1</v>
@@ -7509,7 +7509,7 @@
         <v>0</v>
       </c>
       <c r="B373" t="n">
-        <v>0.404</v>
+        <v>0.272</v>
       </c>
       <c r="C373" t="n">
         <v>1</v>
@@ -7528,7 +7528,7 @@
         <v>0</v>
       </c>
       <c r="B374" t="n">
-        <v>0.637</v>
+        <v>0.618</v>
       </c>
       <c r="C374" t="n">
         <v>1</v>
@@ -7547,7 +7547,7 @@
         <v>0</v>
       </c>
       <c r="B375" t="n">
-        <v>0.409</v>
+        <v>0.376</v>
       </c>
       <c r="C375" t="n">
         <v>1</v>
@@ -7566,7 +7566,7 @@
         <v>0</v>
       </c>
       <c r="B376" t="n">
-        <v>0.547</v>
+        <v>0.525</v>
       </c>
       <c r="C376" t="n">
         <v>1</v>
@@ -7585,7 +7585,7 @@
         <v>0</v>
       </c>
       <c r="B377" t="n">
-        <v>0.47</v>
+        <v>0.782</v>
       </c>
       <c r="C377" t="n">
         <v>1</v>
@@ -7604,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="B378" t="n">
-        <v>0.43</v>
+        <v>0.434</v>
       </c>
       <c r="C378" t="n">
         <v>0</v>
@@ -7623,7 +7623,7 @@
         <v>0</v>
       </c>
       <c r="B379" t="n">
-        <v>0.388</v>
+        <v>0.533</v>
       </c>
       <c r="C379" t="n">
         <v>0</v>
@@ -7642,7 +7642,7 @@
         <v>0</v>
       </c>
       <c r="B380" t="n">
-        <v>0.339</v>
+        <v>0.365</v>
       </c>
       <c r="C380" t="n">
         <v>0</v>
@@ -7661,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="B381" t="n">
-        <v>0.349</v>
+        <v>0.352</v>
       </c>
       <c r="C381" t="n">
         <v>0</v>
@@ -7680,7 +7680,7 @@
         <v>0</v>
       </c>
       <c r="B382" t="n">
-        <v>0.424</v>
+        <v>0.512</v>
       </c>
       <c r="C382" t="n">
         <v>0</v>
@@ -7699,7 +7699,7 @@
         <v>0</v>
       </c>
       <c r="B383" t="n">
-        <v>0.305</v>
+        <v>0.368</v>
       </c>
       <c r="C383" t="n">
         <v>0</v>
